--- a/location.xlsx
+++ b/location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyuqin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinc4/Desktop/UIUC CS 411/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A0A96F-779B-9648-85B1-C05F7657A17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89140A1E-3F53-344C-886D-E862CE63AD59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2020" yWindow="1340" windowWidth="28040" windowHeight="16500" xr2:uid="{FE3CF1F1-1DAB-C448-8BDD-0E2AEA11D70E}"/>
+    <workbookView xWindow="2980" yWindow="7320" windowWidth="20660" windowHeight="12580" xr2:uid="{FE3CF1F1-1DAB-C448-8BDD-0E2AEA11D70E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4581868C-B4E9-2943-A580-A219ADDEF259}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="88" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,446 +1364,446 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>40.105953999999997</v>
+        <v>40.104134999999999</v>
       </c>
       <c r="C33">
-        <v>88.224053999999995</v>
+        <v>88.241528000000002</v>
       </c>
       <c r="D33">
-        <v>40.105953999999997</v>
+        <v>40.104134999999999</v>
       </c>
       <c r="E33">
-        <v>88.219316000000006</v>
+        <v>88.238628000000006</v>
       </c>
       <c r="F33">
-        <v>40.100546999999999</v>
+        <v>40.102707000000002</v>
       </c>
       <c r="G33">
-        <v>88.221883000000005</v>
+        <v>88.241528000000002</v>
       </c>
       <c r="H33">
-        <v>40.100546999999999</v>
+        <v>40.102707000000002</v>
       </c>
       <c r="I33">
-        <v>88.219316000000006</v>
-      </c>
-      <c r="J33" s="3">
-        <v>40.104134999999999</v>
-      </c>
-      <c r="K33" s="3">
-        <v>88.224053999999995</v>
-      </c>
-      <c r="L33" t="s">
-        <v>9</v>
+        <v>88.238628000000006</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
         <v>40.104134999999999</v>
       </c>
       <c r="C34">
-        <v>88.241528000000002</v>
+        <v>88.238628000000006</v>
       </c>
       <c r="D34">
         <v>40.104134999999999</v>
       </c>
       <c r="E34">
+        <v>88.233536000000001</v>
+      </c>
+      <c r="F34">
+        <v>40.101498999999997</v>
+      </c>
+      <c r="G34">
         <v>88.238628000000006</v>
       </c>
-      <c r="F34">
-        <v>40.102707000000002</v>
-      </c>
-      <c r="G34">
-        <v>88.241528000000002</v>
-      </c>
       <c r="H34">
-        <v>40.102707000000002</v>
+        <v>40.101498999999997</v>
       </c>
       <c r="I34">
-        <v>88.238628000000006</v>
+        <v>88.233536000000001</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>40.104134999999999</v>
       </c>
       <c r="C35">
-        <v>88.238628000000006</v>
+        <v>88.233536000000001</v>
       </c>
       <c r="D35">
         <v>40.104134999999999</v>
       </c>
       <c r="E35">
-        <v>88.233536000000001</v>
+        <v>88.230442999999994</v>
       </c>
       <c r="F35">
         <v>40.101498999999997</v>
       </c>
       <c r="G35">
-        <v>88.238628000000006</v>
+        <v>88.233536000000001</v>
       </c>
       <c r="H35">
         <v>40.101498999999997</v>
       </c>
       <c r="I35">
-        <v>88.233536000000001</v>
+        <v>88.230442999999994</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>40.104134999999999</v>
       </c>
       <c r="C36">
-        <v>88.233536000000001</v>
+        <v>88.230442999999994</v>
       </c>
       <c r="D36">
         <v>40.104134999999999</v>
       </c>
       <c r="E36">
-        <v>88.230442999999994</v>
+        <v>88.221883000000005</v>
       </c>
       <c r="F36">
-        <v>40.101498999999997</v>
+        <v>40.100546999999999</v>
       </c>
       <c r="G36">
-        <v>88.233536000000001</v>
+        <v>88.230442999999994</v>
       </c>
       <c r="H36">
-        <v>40.101498999999997</v>
+        <v>40.100546999999999</v>
       </c>
       <c r="I36">
-        <v>88.230442999999994</v>
+        <v>88.221883000000005</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>40.104134999999999</v>
+        <v>40.102707000000002</v>
       </c>
       <c r="C37">
-        <v>88.230442999999994</v>
+        <v>88.241528000000002</v>
       </c>
       <c r="D37">
-        <v>40.104134999999999</v>
+        <v>40.102707000000002</v>
       </c>
       <c r="E37">
-        <v>88.221883000000005</v>
+        <v>88.238628000000006</v>
       </c>
       <c r="F37">
-        <v>40.100546999999999</v>
+        <v>40.098061999999999</v>
       </c>
       <c r="G37">
-        <v>88.230442999999994</v>
+        <v>88.241528000000002</v>
       </c>
       <c r="H37">
-        <v>40.100546999999999</v>
+        <v>40.098061999999999</v>
       </c>
       <c r="I37">
-        <v>88.221883000000005</v>
+        <v>88.238628000000006</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>40.102707000000002</v>
+        <v>40.101498999999997</v>
       </c>
       <c r="C38">
-        <v>88.241528000000002</v>
+        <v>88.233536000000001</v>
       </c>
       <c r="D38">
-        <v>40.102707000000002</v>
+        <v>40.101498999999997</v>
       </c>
       <c r="E38">
-        <v>88.238628000000006</v>
+        <v>88.230442999999994</v>
       </c>
       <c r="F38">
-        <v>40.098061999999999</v>
+        <v>40.100546999999999</v>
       </c>
       <c r="G38">
-        <v>88.241528000000002</v>
+        <v>88.233536000000001</v>
       </c>
       <c r="H38">
-        <v>40.098061999999999</v>
+        <v>40.100546999999999</v>
       </c>
       <c r="I38">
-        <v>88.238628000000006</v>
+        <v>88.230442999999994</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>40.101498999999997</v>
       </c>
       <c r="C39">
-        <v>88.233536000000001</v>
+        <v>88.238628000000006</v>
       </c>
       <c r="D39">
         <v>40.101498999999997</v>
       </c>
       <c r="E39">
-        <v>88.230442999999994</v>
+        <v>88.233536000000001</v>
       </c>
       <c r="F39">
-        <v>40.100546999999999</v>
+        <v>40.098061999999999</v>
       </c>
       <c r="G39">
-        <v>88.233536000000001</v>
+        <v>88.238628000000006</v>
       </c>
       <c r="H39">
-        <v>40.100546999999999</v>
+        <v>40.098061999999999</v>
       </c>
       <c r="I39">
-        <v>88.230442999999994</v>
+        <v>88.233536000000001</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>40.101498999999997</v>
+        <v>40.100546999999999</v>
       </c>
       <c r="C40">
-        <v>88.238628000000006</v>
+        <v>88.233536000000001</v>
       </c>
       <c r="D40">
-        <v>40.101498999999997</v>
+        <v>40.100546999999999</v>
       </c>
       <c r="E40">
-        <v>88.233536000000001</v>
+        <v>88.222852000000003</v>
       </c>
       <c r="F40">
         <v>40.098061999999999</v>
       </c>
       <c r="G40">
-        <v>88.238628000000006</v>
-      </c>
-      <c r="H40">
+        <v>88.233536000000001</v>
+      </c>
+      <c r="H40" s="1">
         <v>40.098061999999999</v>
       </c>
       <c r="I40">
-        <v>88.233536000000001</v>
+        <v>88.222852000000003</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>40.100546999999999</v>
       </c>
       <c r="C41">
-        <v>88.233536000000001</v>
+        <v>88.222852000000003</v>
       </c>
       <c r="D41">
         <v>40.100546999999999</v>
       </c>
       <c r="E41">
+        <v>88.219316000000006</v>
+      </c>
+      <c r="F41" s="1">
+        <v>40.098061999999999</v>
+      </c>
+      <c r="G41">
         <v>88.222852000000003</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>40.098061999999999</v>
       </c>
-      <c r="G41">
-        <v>88.233536000000001</v>
-      </c>
-      <c r="H41" s="1">
-        <v>40.098061999999999</v>
-      </c>
       <c r="I41">
-        <v>88.222852000000003</v>
+        <v>88.219316000000006</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>40.100546999999999</v>
+        <v>40.098061999999999</v>
       </c>
       <c r="C42">
-        <v>88.222852000000003</v>
+        <v>88.241528000000002</v>
       </c>
       <c r="D42">
-        <v>40.100546999999999</v>
+        <v>40.098061999999999</v>
       </c>
       <c r="E42">
-        <v>88.219316000000006</v>
-      </c>
-      <c r="F42" s="1">
-        <v>40.098061999999999</v>
+        <v>88.238628000000006</v>
+      </c>
+      <c r="F42">
+        <v>40.094496999999997</v>
       </c>
       <c r="G42">
-        <v>88.222852000000003</v>
+        <v>88.241528000000002</v>
       </c>
       <c r="H42">
-        <v>40.098061999999999</v>
+        <v>40.094496999999997</v>
       </c>
       <c r="I42">
-        <v>88.219316000000006</v>
+        <v>88.238628000000006</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>40.098061999999999</v>
       </c>
       <c r="C43">
-        <v>88.241528000000002</v>
+        <v>88.238628000000006</v>
       </c>
       <c r="D43">
         <v>40.098061999999999</v>
       </c>
       <c r="E43">
-        <v>88.238628000000006</v>
+        <v>88.233536000000001</v>
       </c>
       <c r="F43">
         <v>40.094496999999997</v>
       </c>
       <c r="G43">
-        <v>88.241528000000002</v>
+        <v>88.238628000000006</v>
       </c>
       <c r="H43">
         <v>40.094496999999997</v>
       </c>
       <c r="I43">
-        <v>88.238628000000006</v>
+        <v>88.233536000000001</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>40.098061999999999</v>
       </c>
       <c r="C44">
-        <v>88.238628000000006</v>
+        <v>88.233536000000001</v>
       </c>
       <c r="D44">
         <v>40.098061999999999</v>
       </c>
       <c r="E44">
-        <v>88.233536000000001</v>
+        <v>88.223746000000006</v>
       </c>
       <c r="F44">
         <v>40.094496999999997</v>
       </c>
       <c r="G44">
-        <v>88.238628000000006</v>
+        <v>88.233536000000001</v>
       </c>
       <c r="H44">
         <v>40.094496999999997</v>
       </c>
       <c r="I44">
-        <v>88.233536000000001</v>
+        <v>88.223746000000006</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>40.098061999999999</v>
       </c>
       <c r="C45">
-        <v>88.233536000000001</v>
+        <v>88.223746000000006</v>
       </c>
       <c r="D45">
         <v>40.098061999999999</v>
       </c>
       <c r="E45">
-        <v>88.223746000000006</v>
+        <v>88.219316000000006</v>
       </c>
       <c r="F45">
         <v>40.094496999999997</v>
       </c>
       <c r="G45">
-        <v>88.233536000000001</v>
+        <v>88.223746000000006</v>
       </c>
       <c r="H45">
         <v>40.094496999999997</v>
       </c>
       <c r="I45">
-        <v>88.223746000000006</v>
+        <v>88.219316000000006</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>40.098061999999999</v>
       </c>
       <c r="C46">
-        <v>88.223746000000006</v>
+        <v>88.219316000000006</v>
       </c>
       <c r="D46">
         <v>40.098061999999999</v>
       </c>
       <c r="E46">
-        <v>88.219316000000006</v>
+        <v>88.209671999999998</v>
       </c>
       <c r="F46">
         <v>40.094496999999997</v>
       </c>
       <c r="G46">
-        <v>88.223746000000006</v>
+        <v>88.219316000000006</v>
       </c>
       <c r="H46">
         <v>40.094496999999997</v>
       </c>
       <c r="I46">
-        <v>88.219316000000006</v>
+        <v>88.209671999999998</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B47">
-        <v>40.098061999999999</v>
+        <v>40.105953999999997</v>
       </c>
       <c r="C47">
+        <v>88.224053999999995</v>
+      </c>
+      <c r="D47">
+        <v>40.105953999999997</v>
+      </c>
+      <c r="E47">
         <v>88.219316000000006</v>
       </c>
-      <c r="D47">
-        <v>40.098061999999999</v>
-      </c>
-      <c r="E47">
-        <v>88.209671999999998</v>
-      </c>
       <c r="F47">
-        <v>40.094496999999997</v>
+        <v>40.100546999999999</v>
       </c>
       <c r="G47">
+        <v>88.221883000000005</v>
+      </c>
+      <c r="H47">
+        <v>40.100546999999999</v>
+      </c>
+      <c r="I47">
         <v>88.219316000000006</v>
       </c>
-      <c r="H47">
-        <v>40.094496999999997</v>
-      </c>
-      <c r="I47">
-        <v>88.209671999999998</v>
+      <c r="J47" s="3">
+        <v>40.104134999999999</v>
+      </c>
+      <c r="K47" s="3">
+        <v>88.224053999999995</v>
+      </c>
+      <c r="L47" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
